--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_AREPD_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_AREPD_General.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>2.270482596061766</v>
+        <v>4.109739326196543</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>2.991284383072845</v>
+        <v>3.824239515718811</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>3.247876995903164</v>
+        <v>4.103986298999253</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>2.721817742286819</v>
+        <v>4.200855921370634</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>2.937753049473157</v>
+        <v>3.563375856854013</v>
       </c>
     </row>
   </sheetData>
